--- a/uniqlabsorg/evidence.xlsx
+++ b/uniqlabsorg/evidence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erkan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BDAB24-334B-4D28-A6DB-E4D7A3E7ECEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE68B51E-182E-4AF3-9552-7568A6BCEEC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -130,9 +130,6 @@
     <t>UniqLabs</t>
   </si>
   <si>
-    <t>uptick14ujtvs89menvpuza8fphrp43kd2m3wn0r3puj8</t>
-  </si>
-  <si>
     <t>iaa1s3m24ynlwqsr88584mkcaepj6kfx0fn345eh6d</t>
   </si>
   <si>
@@ -143,6 +140,9 @@
   </si>
   <si>
     <t>omniflix1s3m24ynlwqsr88584mkcaepj6kfx0fn3aggl0z</t>
+  </si>
+  <si>
+    <t>uptick1yve7w0gp5jfwmxe85nwguxs53hffd099h0cg64</t>
   </si>
 </sst>
 </file>
@@ -540,7 +540,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -586,19 +586,19 @@
         <v>27</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>26</v>

--- a/uniqlabsorg/evidence.xlsx
+++ b/uniqlabsorg/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erkan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE68B51E-182E-4AF3-9552-7568A6BCEEC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C8A579-F340-4750-8E35-75A4659C98B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="47">
   <si>
     <t>TxHash</t>
   </si>
@@ -79,24 +79,6 @@
     <t>nft id</t>
   </si>
   <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>ibc class on dest chain</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
-  </si>
-  <si>
-    <t>nft id you minted</t>
-  </si>
-  <si>
     <t>TeamName</t>
   </si>
   <si>
@@ -143,13 +125,73 @@
   </si>
   <si>
     <t>uptick1yve7w0gp5jfwmxe85nwguxs53hffd099h0cg64</t>
+  </si>
+  <si>
+    <t>47ED87FB1064ABCDD1C1D37E966C24EF3AA1AB634F4AF6C3CC4CECD2620D6115</t>
+  </si>
+  <si>
+    <t>uniq1</t>
+  </si>
+  <si>
+    <t>09ABCD3D888825F5152C08226D7C66EBF708EF5BE1E9AB25F0B358C228EAD5C0</t>
+  </si>
+  <si>
+    <t>uniqnft1</t>
+  </si>
+  <si>
+    <t>uniqnft2</t>
+  </si>
+  <si>
+    <t>uniqnft3</t>
+  </si>
+  <si>
+    <t>uniqnft4</t>
+  </si>
+  <si>
+    <t>uniqnft5</t>
+  </si>
+  <si>
+    <t>0E9032ACCE204470A612970E0BBDBB52527812FC2A53D99F59D08A913AD8D18F</t>
+  </si>
+  <si>
+    <t>56CD8FC82635E07B46F2CC0D315F83D67340156E5A62E8AB6BBE07CFB6E3D54A</t>
+  </si>
+  <si>
+    <t>BF95DF8F0195BE9DE5B6B466C9AC0B48470B239B551A351CD9B17FDD638182FD</t>
+  </si>
+  <si>
+    <t>80F31282CB3CBA2A78DD5EF2106F789C6E73677468B0A49EDE254B9154276BE5</t>
+  </si>
+  <si>
+    <t>636FC953F77BE0C6DA64DABFFD5C2282D1A60ACC54891BC3362F3F13959B8037</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>489CA4C85C2A6E08DE5BD7AC4B9D1D791168DC49CCC31194B1496393C6B972DE</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>34C432392EE9320C56EFE9C9B8FB88D66EDAC9D309E51FEF473E47306E3056FE</t>
+  </si>
+  <si>
+    <t>wasm.juno1stv6sk0mvku34fj2mqrlyru6683866n306mfv52tlugtl322zmks26kg7a/channel-89/uniq1</t>
+  </si>
+  <si>
+    <t>ibc/DDCD86A8CF215B6441B991A4DF6E79E0512048D3FC485AA571CB1A0B7D8158A9</t>
+  </si>
+  <si>
+    <t>98B951BA6C4C6909BC9E3C2E33E335D3F9C86C91A3081E41CED8DF18F6B67EE8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +202,11 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -216,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -230,6 +277,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -539,7 +590,7 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -557,54 +608,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1051,7 +1102,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1068,10 +1121,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1316,9 +1369,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1339,13 +1394,57 @@
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1360,7 +1459,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1385,20 +1486,21 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>39</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1409,7 +1511,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1434,16 +1538,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1458,7 +1562,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1483,16 +1589,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>43</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1507,7 +1613,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1533,16 +1641,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/uniqlabsorg/evidence.xlsx
+++ b/uniqlabsorg/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erkan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C8A579-F340-4750-8E35-75A4659C98B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B538271-1755-4612-8930-A7FB8F4480F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="109">
   <si>
     <t>TxHash</t>
   </si>
@@ -58,27 +58,12 @@
     <t>ChainID</t>
   </si>
   <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
-  </si>
-  <si>
     <t>ClassID</t>
   </si>
   <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
-  </si>
-  <si>
     <t>TeamName</t>
   </si>
   <si>
@@ -185,6 +170,207 @@
   </si>
   <si>
     <t>98B951BA6C4C6909BC9E3C2E33E335D3F9C86C91A3081E41CED8DF18F6B67EE8</t>
+  </si>
+  <si>
+    <t>uniqnft6a</t>
+  </si>
+  <si>
+    <t>ibc/7260B2B7A33ABD6FFC7B10AD6D89E57383E1395A7B4B2DB0D766968E0FBA4342</t>
+  </si>
+  <si>
+    <t>uniqnft7</t>
+  </si>
+  <si>
+    <t>ibc/B36FA0EFF85576375203F921CBB78746CC81A09B01A8F2B00F68230BAE5228A5</t>
+  </si>
+  <si>
+    <t>uniqnft8</t>
+  </si>
+  <si>
+    <t>ibc/3A5A525E758A9AEE51C138C823E0F7C20895DF51B5EEA466AFEA0A4911536A62</t>
+  </si>
+  <si>
+    <t>uniqnft9</t>
+  </si>
+  <si>
+    <t>ibc/7D74A5E5AFBB3844E27DE74D51B081A484E2F92739FF2842B5D442965959DF3C</t>
+  </si>
+  <si>
+    <t>ibc/D52AC11EAD87D20FDF428104A7A183D68289BFB4640A615B0B328F8C0684B25C</t>
+  </si>
+  <si>
+    <t>uniqnft10</t>
+  </si>
+  <si>
+    <t>ibc/A6799F3491B1C74DD629CA487FC7B23F2D27A3FBBF2666481906BB4B1F39341A</t>
+  </si>
+  <si>
+    <t>uniqnft11</t>
+  </si>
+  <si>
+    <t>F74F735BCDD753A955F6F7330419C6EDCDB2F872D1B553DA173B2E8AC154DFEA</t>
+  </si>
+  <si>
+    <t>channel-22</t>
+  </si>
+  <si>
+    <t>9881B4616EBF8492AD484BC65C44B14880ACDBF9C5A17A98F873B1F7B419F07B</t>
+  </si>
+  <si>
+    <t>channel-203</t>
+  </si>
+  <si>
+    <t>9EEB7677627397BE921BC627F7F879A0C330A2CD0F788EE098821026D9BEDE96</t>
+  </si>
+  <si>
+    <t>channel-6</t>
+  </si>
+  <si>
+    <t>5A8E0CA41F6784E1FFE48F9B2B67D936F46B95B6DF187ED43FF8501460137FB4</t>
+  </si>
+  <si>
+    <t>channel-208</t>
+  </si>
+  <si>
+    <t>41B7047B21693E5624A535EEDE16B44ADE740C0D32F61681AFAE46F2C790779D</t>
+  </si>
+  <si>
+    <t>channel-17</t>
+  </si>
+  <si>
+    <t>01885CF8A2D9A45B533A0A2D7ABDA02EA7929EB14D94088DB25592E552F41208</t>
+  </si>
+  <si>
+    <t>channel-5</t>
+  </si>
+  <si>
+    <t>3A6FCED9749EDD7FFCF68D95FD8A64C4E175CE07E6311702BFAE5993D232FD70</t>
+  </si>
+  <si>
+    <t>channel-41</t>
+  </si>
+  <si>
+    <t>C287C9F8AD7155E2D418DEDBDE0E849040E67E7359F91FEF37ACFF337BB297EE</t>
+  </si>
+  <si>
+    <t>channel-4</t>
+  </si>
+  <si>
+    <t>0E803635B6E56E240CFC9A8D98BFEDBED84802D782E94F5A419B65B4E218CC35</t>
+  </si>
+  <si>
+    <t>channel-24</t>
+  </si>
+  <si>
+    <t>BCBC3F02A0B5CDDE97E3A2387F509DE02B99386E4BE54B08B79D0C0ED0921FD7</t>
+  </si>
+  <si>
+    <t>channel-86</t>
+  </si>
+  <si>
+    <t>619622A83E786FE5D76BE594D11D9790B2F7398AD096F06A8364DE3CC8B9CCA9</t>
+  </si>
+  <si>
+    <t>channel-7</t>
+  </si>
+  <si>
+    <t>44CBF0196B0A3835181C8EBA4630BBCDCCAD0F9E81FEE198BAB2AC59DC1C3858</t>
+  </si>
+  <si>
+    <t>channel-90</t>
+  </si>
+  <si>
+    <t>53EFDCA79030EEBFAA78F63E041FC1D01321FBC2D5706197D89E0268E38429BA</t>
+  </si>
+  <si>
+    <t>9AE4C02AEB17C99E3FDDC7CBD3461A4DE192488F45B023273CA055326E57F42D</t>
+  </si>
+  <si>
+    <t>channel-93</t>
+  </si>
+  <si>
+    <t>A9AC15822BE6517FAEDE90F89BC3D0BFF5B3942E94555927A66B223E3AF50E56</t>
+  </si>
+  <si>
+    <t>channel-211</t>
+  </si>
+  <si>
+    <t>2EF13BB40358B0A37840154FCDBF0C288E51E87E58CBA5BB523E2F622D8ABD92</t>
+  </si>
+  <si>
+    <t>1402C80D44AD5B2D22C8506F7C6255426A306B958B6C8418472899EF87888646</t>
+  </si>
+  <si>
+    <t>67F37AB31893D2DF7D651425EAF5E481B19D7B95AC39F03B8A104F5F424B6FEE</t>
+  </si>
+  <si>
+    <t>12C9E2889698BCA032E88AF4C5FFBB7595647D7CA610B3F478D6BEB7CCC4423F</t>
+  </si>
+  <si>
+    <t>52878C505D843AD9FAB2C7FEBDC5B24178571F7E78FDB912AFACC844C35F9F43</t>
+  </si>
+  <si>
+    <t>channel-207</t>
+  </si>
+  <si>
+    <t>82304E46C1E7CB8625DD2EB3156DCDB88633B0182B8C283A5AC2AA20260BD3D5</t>
+  </si>
+  <si>
+    <t>channel-0</t>
+  </si>
+  <si>
+    <t>779B08B112809D18929C2AA42C16A2F82139687C6DBC67B76F92D2FA76D63B31</t>
+  </si>
+  <si>
+    <t>470A3CDB4360B1C43027AABD9160B019AFCE2787D1D9808F3DE03D0CCCCF000A</t>
+  </si>
+  <si>
+    <t>D91C9B21711AAA1D343E9A172B8CDEBD1D0610E5FE6ED09FB61D76EDD1AB5443</t>
+  </si>
+  <si>
+    <t>EAD883E39767005D4F743C4328438B74A821338F41BE2F6C49525AF6D5F3DBD4</t>
+  </si>
+  <si>
+    <t>6E95BB5865DBEDFC330A4D7E5235116DEDD3CF2368A341EC3907EAC0F145D921</t>
+  </si>
+  <si>
+    <t>ED11987322D0E35FD619ED83EB8199772A77646E8C06CA989C4BD9E12E2A3FB0</t>
+  </si>
+  <si>
+    <t>0AB517C97C984C417BA2501062B21DD9D6D48BE7655A734A179730AE3F2738F6</t>
+  </si>
+  <si>
+    <t>A9D7C0B540CB0C270A84432B1F4F776A376608BCD350A37C178DA19682BB4C83</t>
+  </si>
+  <si>
+    <t>DA19649D2E4C00EAB1BB3DB17E407F55A503C19A82A146361C1D9B1E68993A9A</t>
+  </si>
+  <si>
+    <t>83CC0DA8A8BEAEE6A3DCBBBE7878C30CF0BE9ED225E6134400ADEB4D40B849E3</t>
+  </si>
+  <si>
+    <t>35A1065B02C477A245892A2BA5CDEA50F9857A05CD5A4BAB58D3180726EFE050</t>
+  </si>
+  <si>
+    <t>689449AE0B94A1647C2806A3A641B1C93C9A1AFA3A831E60C41DAFD90B481089</t>
+  </si>
+  <si>
+    <t>channel-209</t>
+  </si>
+  <si>
+    <t>CA4F7B0667604AC1C9023A96A524DDB59A2A3468FCC656B75FF4C25C4B68555A</t>
+  </si>
+  <si>
+    <t>channel-44</t>
+  </si>
+  <si>
+    <t>BA998FA5E1630FDB9FA2F7158E3637F070F5E6770F7B1DB528C662ACF90F9F28</t>
+  </si>
+  <si>
+    <t>0CBB2448CC455372D97A90760BF8D12E3552897C1750FF68B672C8BF147C3EE5</t>
+  </si>
+  <si>
+    <t>channel-3</t>
   </si>
 </sst>
 </file>
@@ -263,7 +449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -283,6 +469,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -608,54 +801,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -670,7 +863,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -680,18 +875,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -706,7 +901,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -716,18 +913,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -742,7 +939,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -752,18 +951,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -778,7 +977,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -788,18 +989,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -812,9 +1013,73 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="33.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -832,37 +1097,51 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+        <v>66</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -879,38 +1158,52 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
+      <c r="A2" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>72</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+        <v>74</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -928,37 +1221,51 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>79</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+        <v>81</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -976,37 +1283,51 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>85</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+        <v>86</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1024,37 +1345,88 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>91</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+        <v>92</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="17.88671875" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1072,77 +1444,70 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>95</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+        <v>96</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="17.88671875" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
     <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
   </cols>
@@ -1157,71 +1522,51 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>101</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>102</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>108</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1386,65 +1731,65 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1475,10 +1820,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1486,16 +1831,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1527,10 +1872,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1538,16 +1883,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1578,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1589,16 +1934,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1614,7 +1959,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1630,10 +1975,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1641,16 +1986,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1665,7 +2010,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1675,18 +2022,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1701,7 +2048,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1711,18 +2060,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/uniqlabsorg/evidence.xlsx
+++ b/uniqlabsorg/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erkan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B538271-1755-4612-8930-A7FB8F4480F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF2FAD9-EF48-4E5F-88D4-74867861890E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="20412" windowHeight="11304" firstSheet="6" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="93">
   <si>
     <t>TxHash</t>
   </si>
@@ -211,90 +211,48 @@
     <t>F74F735BCDD753A955F6F7330419C6EDCDB2F872D1B553DA173B2E8AC154DFEA</t>
   </si>
   <si>
-    <t>channel-22</t>
-  </si>
-  <si>
     <t>9881B4616EBF8492AD484BC65C44B14880ACDBF9C5A17A98F873B1F7B419F07B</t>
   </si>
   <si>
-    <t>channel-203</t>
-  </si>
-  <si>
     <t>9EEB7677627397BE921BC627F7F879A0C330A2CD0F788EE098821026D9BEDE96</t>
   </si>
   <si>
-    <t>channel-6</t>
-  </si>
-  <si>
     <t>5A8E0CA41F6784E1FFE48F9B2B67D936F46B95B6DF187ED43FF8501460137FB4</t>
   </si>
   <si>
-    <t>channel-208</t>
-  </si>
-  <si>
     <t>41B7047B21693E5624A535EEDE16B44ADE740C0D32F61681AFAE46F2C790779D</t>
   </si>
   <si>
-    <t>channel-17</t>
-  </si>
-  <si>
     <t>01885CF8A2D9A45B533A0A2D7ABDA02EA7929EB14D94088DB25592E552F41208</t>
   </si>
   <si>
-    <t>channel-5</t>
-  </si>
-  <si>
     <t>3A6FCED9749EDD7FFCF68D95FD8A64C4E175CE07E6311702BFAE5993D232FD70</t>
   </si>
   <si>
-    <t>channel-41</t>
-  </si>
-  <si>
     <t>C287C9F8AD7155E2D418DEDBDE0E849040E67E7359F91FEF37ACFF337BB297EE</t>
   </si>
   <si>
-    <t>channel-4</t>
-  </si>
-  <si>
     <t>0E803635B6E56E240CFC9A8D98BFEDBED84802D782E94F5A419B65B4E218CC35</t>
   </si>
   <si>
-    <t>channel-24</t>
-  </si>
-  <si>
     <t>BCBC3F02A0B5CDDE97E3A2387F509DE02B99386E4BE54B08B79D0C0ED0921FD7</t>
   </si>
   <si>
-    <t>channel-86</t>
-  </si>
-  <si>
     <t>619622A83E786FE5D76BE594D11D9790B2F7398AD096F06A8364DE3CC8B9CCA9</t>
   </si>
   <si>
-    <t>channel-7</t>
-  </si>
-  <si>
     <t>44CBF0196B0A3835181C8EBA4630BBCDCCAD0F9E81FEE198BAB2AC59DC1C3858</t>
   </si>
   <si>
-    <t>channel-90</t>
-  </si>
-  <si>
     <t>53EFDCA79030EEBFAA78F63E041FC1D01321FBC2D5706197D89E0268E38429BA</t>
   </si>
   <si>
     <t>9AE4C02AEB17C99E3FDDC7CBD3461A4DE192488F45B023273CA055326E57F42D</t>
   </si>
   <si>
-    <t>channel-93</t>
-  </si>
-  <si>
     <t>A9AC15822BE6517FAEDE90F89BC3D0BFF5B3942E94555927A66B223E3AF50E56</t>
   </si>
   <si>
-    <t>channel-211</t>
-  </si>
-  <si>
     <t>2EF13BB40358B0A37840154FCDBF0C288E51E87E58CBA5BB523E2F622D8ABD92</t>
   </si>
   <si>
@@ -310,15 +268,9 @@
     <t>52878C505D843AD9FAB2C7FEBDC5B24178571F7E78FDB912AFACC844C35F9F43</t>
   </si>
   <si>
-    <t>channel-207</t>
-  </si>
-  <si>
     <t>82304E46C1E7CB8625DD2EB3156DCDB88633B0182B8C283A5AC2AA20260BD3D5</t>
   </si>
   <si>
-    <t>channel-0</t>
-  </si>
-  <si>
     <t>779B08B112809D18929C2AA42C16A2F82139687C6DBC67B76F92D2FA76D63B31</t>
   </si>
   <si>
@@ -355,22 +307,22 @@
     <t>689449AE0B94A1647C2806A3A641B1C93C9A1AFA3A831E60C41DAFD90B481089</t>
   </si>
   <si>
-    <t>channel-209</t>
-  </si>
-  <si>
     <t>CA4F7B0667604AC1C9023A96A524DDB59A2A3468FCC656B75FF4C25C4B68555A</t>
   </si>
   <si>
-    <t>channel-44</t>
-  </si>
-  <si>
     <t>BA998FA5E1630FDB9FA2F7158E3637F070F5E6770F7B1DB528C662ACF90F9F28</t>
   </si>
   <si>
     <t>0CBB2448CC455372D97A90760BF8D12E3552897C1750FF68B672C8BF147C3EE5</t>
   </si>
   <si>
-    <t>channel-3</t>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -475,7 +427,6 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -977,7 +928,7 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1016,7 +967,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1038,31 +989,31 @@
         <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1078,7 +1029,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1097,38 +1048,39 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+        <v>61</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1140,7 +1092,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1159,34 +1111,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>77</v>
+        <v>65</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1202,7 +1154,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1221,10 +1173,233 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="17.88671875" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1232,39 +1407,55 @@
         <v>79</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <c r="B7" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1286,7 +1477,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1294,7 +1485,7 @@
         <v>85</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1302,270 +1493,31 @@
         <v>86</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="17.88671875" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>75</v>
+      <c r="B5" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>80</v>
+        <v>88</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>108</v>
+        <v>89</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/uniqlabsorg/evidence.xlsx
+++ b/uniqlabsorg/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erkan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF2FAD9-EF48-4E5F-88D4-74867861890E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826F7BCD-A1AE-452F-B9E2-8AF4E7003115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="20412" windowHeight="11304" firstSheet="6" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="3" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -163,9 +163,6 @@
     <t>34C432392EE9320C56EFE9C9B8FB88D66EDAC9D309E51FEF473E47306E3056FE</t>
   </si>
   <si>
-    <t>wasm.juno1stv6sk0mvku34fj2mqrlyru6683866n306mfv52tlugtl322zmks26kg7a/channel-89/uniq1</t>
-  </si>
-  <si>
     <t>ibc/DDCD86A8CF215B6441B991A4DF6E79E0512048D3FC485AA571CB1A0B7D8158A9</t>
   </si>
   <si>
@@ -323,6 +320,9 @@
   </si>
   <si>
     <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>juno1tzpn2jrz5mg7qrq32ceym7c8j7slc4m52zvyxnr0g3zefx3cmphsllzkc2</t>
   </si>
 </sst>
 </file>
@@ -834,10 +834,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -872,10 +872,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -910,10 +910,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -948,10 +948,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -986,34 +986,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1048,23 +1048,23 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>37</v>
@@ -1072,10 +1072,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1111,15 +1111,15 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>35</v>
@@ -1127,15 +1127,15 @@
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>35</v>
@@ -1173,15 +1173,15 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>35</v>
@@ -1189,15 +1189,15 @@
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>35</v>
@@ -1235,23 +1235,23 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>35</v>
@@ -1259,10 +1259,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1297,15 +1297,15 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>37</v>
@@ -1313,15 +1313,15 @@
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>37</v>
@@ -1396,23 +1396,23 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>35</v>
@@ -1420,15 +1420,15 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>35</v>
@@ -1436,10 +1436,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1474,31 +1474,31 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>37</v>
@@ -1506,18 +1506,18 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1757,7 +1757,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1786,7 +1786,7 @@
         <v>34</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>27</v>
@@ -1838,7 +1838,7 @@
         <v>36</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>29</v>
@@ -1860,7 +1860,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1889,7 +1889,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>27</v>
@@ -1938,10 +1938,10 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>29</v>
@@ -1982,10 +1982,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2020,11 +2020,11 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>44</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/uniqlabsorg/evidence.xlsx
+++ b/uniqlabsorg/evidence.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erkan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826F7BCD-A1AE-452F-B9E2-8AF4E7003115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E1CE41-A738-4803-BB4A-2F559030CCF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="3" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="5" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="97">
   <si>
     <t>TxHash</t>
   </si>
@@ -323,6 +323,18 @@
   </si>
   <si>
     <t>juno1tzpn2jrz5mg7qrq32ceym7c8j7slc4m52zvyxnr0g3zefx3cmphsllzkc2</t>
+  </si>
+  <si>
+    <t>B050DAA39175DEB9C51ED6370B44A0B076A2916836BB36ED4B134D8F7E65BA62</t>
+  </si>
+  <si>
+    <t>B3A83CB2BBF8AA139D9AD074C91FBE5F3CE2BEBBCA62E1737DEBE3A4876ADB66</t>
+  </si>
+  <si>
+    <t>15521471A9D448CF1E19EC90BBF50EF57DA9F17DF139B6EBC3899D4A7E9EF066</t>
+  </si>
+  <si>
+    <t>CB66438079FBBD24F5C4C40ACD89859D044924C4CBD2D77A9F554C409AAF1D7C</t>
   </si>
 </sst>
 </file>
@@ -401,7 +413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -409,19 +421,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -740,14 +747,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -777,28 +784,28 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -820,8 +827,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -858,8 +865,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -896,8 +903,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -934,8 +941,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -972,8 +979,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.77734375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -996,7 +1003,7 @@
       <c r="A3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1004,15 +1011,15 @@
       <c r="A4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1034,8 +1041,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1058,7 +1065,7 @@
       <c r="A3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1066,15 +1073,15 @@
       <c r="A4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1097,8 +1104,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1110,7 +1117,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="7" t="s">
         <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1121,7 +1128,7 @@
       <c r="A3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1129,15 +1136,15 @@
       <c r="A4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1159,8 +1166,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1183,7 +1190,7 @@
       <c r="A3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1191,15 +1198,15 @@
       <c r="A4" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1221,8 +1228,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1245,7 +1252,7 @@
       <c r="A3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1253,15 +1260,15 @@
       <c r="A4" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1283,8 +1290,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1307,7 +1314,7 @@
       <c r="A3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1315,15 +1322,15 @@
       <c r="A4" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1345,7 +1352,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="17.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1382,8 +1389,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1406,7 +1413,7 @@
       <c r="A3" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1414,31 +1421,31 @@
       <c r="A4" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1454,14 +1461,14 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1484,7 +1491,7 @@
       <c r="A3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1492,31 +1499,31 @@
       <c r="A4" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1532,11 +1539,83 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1544,7 +1623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1559,8 +1638,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1570,7 +1649,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1593,74 +1672,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
@@ -1674,8 +1685,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="17.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1701,7 +1712,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1712,7 +1723,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1723,7 +1734,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1734,7 +1745,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1762,9 +1773,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="17.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1785,7 +1796,7 @@
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>92</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1814,9 +1825,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="17.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1837,7 +1848,7 @@
       <c r="A2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1865,9 +1876,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="17.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1888,7 +1899,7 @@
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>92</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1916,10 +1927,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1968,8 +1979,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2006,8 +2017,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/uniqlabsorg/evidence.xlsx
+++ b/uniqlabsorg/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erkan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E1CE41-A738-4803-BB4A-2F559030CCF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9D0153-F4E0-4992-B9B6-A3D43F940250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="5" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="20412" windowHeight="11304" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -109,9 +109,6 @@
     <t>omniflix1s3m24ynlwqsr88584mkcaepj6kfx0fn3aggl0z</t>
   </si>
   <si>
-    <t>uptick1yve7w0gp5jfwmxe85nwguxs53hffd099h0cg64</t>
-  </si>
-  <si>
     <t>47ED87FB1064ABCDD1C1D37E966C24EF3AA1AB634F4AF6C3CC4CECD2620D6115</t>
   </si>
   <si>
@@ -335,6 +332,9 @@
   </si>
   <si>
     <t>CB66438079FBBD24F5C4C40ACD89859D044924C4CBD2D77A9F554C409AAF1D7C</t>
+  </si>
+  <si>
+    <t>uptick1xgcp08fw4j5ugtg96ld73w7cqcyrckx0hqv60z</t>
   </si>
 </sst>
 </file>
@@ -741,8 +741,8 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -797,7 +797,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>20</v>
@@ -841,10 +841,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -879,10 +879,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -917,10 +917,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -955,10 +955,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -974,12 +974,12 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="33.77734375" customWidth="1"/>
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="80.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -993,15 +993,77 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="B3" t="s">
         <v>90</v>
@@ -1009,15 +1071,15 @@
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
         <v>90</v>
@@ -1025,18 +1087,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1054,52 +1117,113 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>57</v>
+      <c r="A2" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1117,44 +1241,44 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>61</v>
+      <c r="A2" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>64</v>
+      <c r="A5" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1180,23 +1304,23 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
         <v>90</v>
@@ -1204,26 +1328,64 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="81.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1242,15 +1404,93 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="B3" t="s">
         <v>90</v>
@@ -1258,192 +1498,31 @@
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
         <v>90</v>
@@ -1454,84 +1533,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr>
@@ -1555,12 +1556,12 @@
     </row>
     <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1575,7 +1576,7 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1591,12 +1592,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1702,57 +1703,57 @@
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1794,16 +1795,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1846,16 +1847,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1897,16 +1898,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1949,16 +1950,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1993,10 +1994,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2012,7 +2013,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2031,11 +2032,11 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>43</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/uniqlabsorg/evidence.xlsx
+++ b/uniqlabsorg/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erkan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9D0153-F4E0-4992-B9B6-A3D43F940250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456FD8D8-DBFA-4CD1-A125-05929D4BBFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="1464" windowWidth="20412" windowHeight="11304" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="20412" windowHeight="11304" firstSheet="11" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,23 +38,18 @@
     <sheet name="B2" sheetId="23" r:id="rId23"/>
     <sheet name="B5" sheetId="24" r:id="rId24"/>
     <sheet name="B6" sheetId="25" r:id="rId25"/>
+    <sheet name="B7" sheetId="27" r:id="rId26"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="101">
   <si>
     <t>TxHash</t>
   </si>
   <si>
-    <t>The first Interchain NFT-Transfer TxHash</t>
-  </si>
-  <si>
-    <t>The Internal Transfer TxHash on IRISnet</t>
-  </si>
-  <si>
     <t>ChainID</t>
   </si>
   <si>
@@ -335,6 +330,24 @@
   </si>
   <si>
     <t>uptick1xgcp08fw4j5ugtg96ld73w7cqcyrckx0hqv60z</t>
+  </si>
+  <si>
+    <t>6F5356829224A11CA474C9E75E39B47758C7CD7765D707BBB5AD9E101AA5F066</t>
+  </si>
+  <si>
+    <t>E650FBF2B32789F10130D9C9A0EF7F5C8F403FDD8776093ADD4ACF2DEE4F1725</t>
+  </si>
+  <si>
+    <t>CC1667687C3A8BFA272868F28E46E83133956226CD37AB90AA12A38F88CB70D0</t>
+  </si>
+  <si>
+    <t>C45A465863DD253A15AD8C9A1E6377009209B8E7D2D22AD2A28C704B9DFDC021</t>
+  </si>
+  <si>
+    <t>E1569F009B95351756BBDB9268B3C569DB8D2C67097F4DE087546457091D633E</t>
+  </si>
+  <si>
+    <t>FFE320412A1900ABB3ECBFE152C8616198026A27DB573DBD2FD1567D915511B8</t>
   </si>
 </sst>
 </file>
@@ -741,7 +754,7 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -759,54 +772,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -833,15 +846,53 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>44</v>
@@ -852,15 +903,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -871,34 +922,34 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -909,10 +960,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -928,15 +979,77 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="80.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -947,96 +1060,59 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="80.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1050,56 +1126,117 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>56</v>
+      <c r="A2" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1113,20 +1250,82 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>60</v>
+      <c r="A2" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
@@ -1134,15 +1333,15 @@
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>63</v>
+      <c r="A5" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
@@ -1153,15 +1352,53 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="81.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1175,357 +1412,133 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="81.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" t="s">
-        <v>90</v>
-      </c>
-    </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="2" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1555,6 +1568,42 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>92</v>
       </c>
@@ -1569,15 +1618,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1592,7 +1641,43 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1605,14 +1690,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86DDB7F4-3849-4EEA-B808-4819ED883490}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1626,46 +1710,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1695,65 +1745,65 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1784,27 +1834,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1836,27 +1886,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1887,27 +1937,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1939,43 +1989,81 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>39</v>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1986,15 +2074,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>40</v>
@@ -2003,42 +2091,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>